--- a/jslx-test/src/main/resources/templates/REPORT_COL.xlsx
+++ b/jslx-test/src/main/resources/templates/REPORT_COL.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_TestDemo\Jslx\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_TestDemo\jslx-test\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0863A59-C9DF-4D0A-B21A-5ADFA0F5D6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2B29C-AB52-4D32-B31C-4BF8C1E11BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="LastCellA6" sheetId="1" r:id="rId1"/>
+    <sheet name="LastCellC6" sheetId="2" r:id="rId2"/>
+    <sheet name="LastCellE6_OutBound" sheetId="4" r:id="rId3"/>
+    <sheet name="LastCellE6_InBound" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +42,7 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>jx:area(lastCell=”C5”)</t>
+          <t>jx:area(lastCell=”C6”)</t>
         </r>
       </text>
     </comment>
@@ -52,7 +55,7 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>jx:each(items=”peoples” var=”people” lastCell=”C6”)</t>
+          <t>jx:each(items=”peoples” direction="RIGHT" var=”people” lastCell=”A6”)</t>
         </r>
       </text>
     </comment>
@@ -60,8 +63,116 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者不明</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4A07AA16-5D76-40D0-B5EE-E963CFFDD1CA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:area(lastCell=”C6”)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{8A33BEE5-7529-46A7-852A-AE1159C2625B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:each(items=”peoples” direction="RIGHT" var=”people” lastCell=”C6”)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者不明</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3F1C9C1F-636C-49B5-A6D0-66B16B26CC3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:area(lastCell=”C6”)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{23E7D719-F07D-4619-AE07-3451873C37F2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:each(items=”peoples” direction="RIGHT" var=”people” lastCell=”E6”)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者不明</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0619388-66F5-448F-9C5D-88B388BD8AE7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:area(lastCell=”E6”)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{54CE3BD5-BE3A-43A2-9FF6-6E4B0E4F1E20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:each(items=”peoples” direction="RIGHT" var=”people” lastCell=”E6”)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>${people.name}</t>
   </si>
@@ -70,6 +181,22 @@
   </si>
   <si>
     <t>${people.sex}</t>
+  </si>
+  <si>
+    <t>Last cell in jx:area is C6 , while the last cell in jx:each is E6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last cell in jx:area is E6 , and the last cell in jx:each is E6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last cell in jx:area is C6 , and the last cell in jx:each is C6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last cell in jx:area is C6 , and the last cell in jx:each is A6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,12 +223,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -250,39 +384,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -292,4 +425,130 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A944E4-547E-49AF-8431-E6360F40786E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8822D6-A3FD-452D-8802-2699454DBC73}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843E7D9C-8FB9-454F-9464-3C446E466B3B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>